--- a/Transavia_RT.xlsx
+++ b/Transavia_RT.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="173">
   <si>
     <t>Object</t>
   </si>
@@ -527,13 +527,31 @@
   </si>
   <si>
     <t>Flight AMS-FOR</t>
+  </si>
+  <si>
+    <t>Scenario: Book an indirect flight</t>
+  </si>
+  <si>
+    <t>Scenario: Book a flight with return date before departure date</t>
+  </si>
+  <si>
+    <t>Scenario: Book a single flight</t>
+  </si>
+  <si>
+    <t>Scenario: Book a return flight</t>
+  </si>
+  <si>
+    <t>Scenario: Opting for a single flight</t>
+  </si>
+  <si>
+    <t>Scenario: Book an flight with more then douoble the nr of babies then adults</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -565,6 +583,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -622,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -640,6 +664,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -944,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1018,34 +1043,22 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>45</v>
+      <c r="A2" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>54</v>
@@ -1056,16 +1069,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>45</v>
@@ -1073,95 +1086,95 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>22</v>
@@ -1169,16 +1182,16 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>22</v>
@@ -1186,86 +1199,86 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>22</v>
@@ -1273,143 +1286,152 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="13" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="F19" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1417,154 +1439,124 @@
         <v>165</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>45</v>
+      <c r="A29" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>45</v>
+      <c r="A30" s="15" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>22</v>
@@ -1572,34 +1564,30 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="6" t="str">
-        <f>E35</f>
-        <v>10 Sep 2017</v>
+      <c r="E38" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>22</v>
@@ -1607,17 +1595,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="6" t="str">
-        <f>E36</f>
-        <v>20 Sep 2017</v>
+      <c r="E39" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>22</v>
@@ -1625,16 +1612,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>22</v>
@@ -1642,16 +1629,17 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f>E38</f>
+        <v>10 Sep 2017</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>22</v>
@@ -1659,199 +1647,194 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f>E39</f>
+        <v>20 Sep 2017</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>87</v>
+        <v>117</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>45</v>
+        <v>165</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>22</v>
+      <c r="A51" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>136</v>
+        <v>58</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>22</v>
@@ -1859,33 +1842,30 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>22</v>
@@ -1893,35 +1873,30 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="6" t="str">
-        <f>E55</f>
-        <v>10 Sep 2017</v>
+        <v>136</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="6" t="str">
-        <f>E56</f>
-        <v>20 Jan 2017</v>
+        <v>51</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>22</v>
@@ -1929,16 +1904,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>22</v>
@@ -1946,16 +1921,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>22</v>
@@ -1963,248 +1938,214 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="E62" s="6" t="str">
+        <f>E59</f>
+        <v>10 Sep 2017</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>142</v>
+        <v>52</v>
+      </c>
+      <c r="E63" s="6" t="str">
+        <f>E60</f>
+        <v>20 Jan 2017</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>87</v>
+        <v>132</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>45</v>
+        <v>165</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>22</v>
+        <v>165</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>36</v>
+      <c r="A71" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>22</v>
+      <c r="A72" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>145</v>
+        <v>56</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="14" t="str">
-        <f>E74</f>
-        <v>18 Sep 2017</v>
+        <v>52</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>22</v>
@@ -2212,70 +2153,184 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F79" s="10" t="s">
+      <c r="E79" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="14" t="str">
+        <f>E81</f>
+        <v>18 Sep 2017</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="C88" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>36</v>
       </c>
     </row>
